--- a/src/main/webapp/report/Template/MyFirstExcel.xlsx
+++ b/src/main/webapp/report/Template/MyFirstExcel.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GMES_API_CORE\src\main\webapp\report\Template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A9A1E1-A088-445A-B242-ACB598080E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -24,12 +18,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -55,8 +49,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -72,6 +68,9 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,37 +362,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="A1:XFD1048576"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>